--- a/biology/Virologie/Tobamovirus/Tobamovirus.xlsx
+++ b/biology/Virologie/Tobamovirus/Tobamovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tobamovirus est un genre de virus des plantes ou phytovirus, de la famille des Virgaviridae[2], dont l'espèce-type est le virus de la mosaïque du tabac. Ces virus ont comme effets de décolorer ou de déformer partiellement les feuillages des plantes atteintes et quelquefois les fruits.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tobamovirus est un genre de virus des plantes ou phytovirus, de la famille des Virgaviridae, dont l'espèce-type est le virus de la mosaïque du tabac. Ces virus ont comme effets de décolorer ou de déformer partiellement les feuillages des plantes atteintes et quelquefois les fruits.
 Parmi les plantes cultivées atteintes de ce type de virus, on peut citer :
 ail, amandier, betterave, blé, canne à sucre, châtaignier, chou-fleur, chrysanthème, concombre, cresson, figuier, haricot, houblon, laitue, luzerne, manioc, navet, noisetier, orge, pastèque, pêcher, poirier commun, petit pois, pomme de terre, pommier, rosier, soja, tabac, tomate, etc.
 Les tobamovirus présentent un génome composé d'une molécule d'ARN à polarité positive. Le plus étudié est le virus de la mosaïque du tabac
@@ -514,7 +526,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paprika mild mottle virus - virus de la marbrure légère du paprika
 Pepper mild mottle virus (PMMoV) - virus de la marbrure légère du piment
@@ -550,7 +564,9 @@
           <t>Lutte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Utilisation de variétés naturellement résistantes, ou greffées.
 Détection et élimination des plantes atteintes (le plus précocement possible).
